--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBA1817-A61D-4C43-A74F-0B00F05CC218}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14B802-4C7D-405E-87B5-D4F587A5E489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,21 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MainLoadPanel</t>
-  </si>
-  <si>
-    <t>Prefabs/UIPanel/MainLoadPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopLoadPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/UIPanel/ShopLoadPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelIntroducePanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +111,22 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>MainPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/MainPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/ShopPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -483,7 +484,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,7 +539,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -552,7 +553,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -566,13 +567,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -580,13 +581,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -594,13 +595,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -608,13 +609,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC14B802-4C7D-405E-87B5-D4F587A5E489}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073E8A8-1A9B-4695-A5EE-0D18A771A5A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,17 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/ShopPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>HelpPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/HelpPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,10 +180,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -481,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -496,7 +506,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -618,6 +628,20 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E073E8A8-1A9B-4695-A5EE-0D18A771A5A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A52D4-1D5B-4ED3-A57E-9971747F4962}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="13824" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/HelpPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/GamePlayPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,6 +657,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A52D4-1D5B-4ED3-A57E-9971747F4962}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B31AA-398E-41B4-B86B-B8CFB250E2D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8712" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/GamePlayPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePausePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/GamePausePanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -671,6 +683,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207B31AA-398E-41B4-B86B-B8CFB250E2D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7C93E-39EE-4819-8909-E6265C562492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,20 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/GamePausePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>TowerSetPanel</t>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/TowerSetPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,6 +711,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF7C93E-39EE-4819-8909-E6265C562492}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247109A-D6CE-472B-9310-26B85E24EC91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1044" windowWidth="13392" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8772" yWindow="924" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/TowerSetPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Top</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +528,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -722,7 +718,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/UIPanelData.xlsx
+++ b/Excel/UIPanelData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E247109A-D6CE-472B-9310-26B85E24EC91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C46B3F-3FCA-4C61-8FCA-04BFC58F143E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8772" yWindow="924" windowWidth="14268" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>tid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,28 @@
   </si>
   <si>
     <t>Prefabs/UIPanel/TowerSetPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>GameWinPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOverPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/GameWinPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UIPanel/GameOverPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -721,6 +743,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
